--- a/112501006_ENG_張晨均.xlsx
+++ b/112501006_ENG_張晨均.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE7108B-DCF1-4A2D-8138-A0F0597846F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF54BB8-8146-4136-8190-75D757F22B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -227,11 +227,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Number of students passed</t>
+    <t>Number of students who passed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Number of students failed</t>
+    <t>Number of students who failed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +324,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -342,16 +342,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -928,10 +918,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Number of students passed</c:v>
+                  <c:v>Number of students who passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Number of students failed</c:v>
+                  <c:v>Number of students who failed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2530,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="68" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="68" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
